--- a/src/assets/sim-profile-serial.xlsx
+++ b/src/assets/sim-profile-serial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAF64F-97DB-44E8-AB90-46D6D02F5133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863D77B1-2E4C-442F-A52E-D003AE4FA036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB2EB0CE-4595-4697-908A-3052817E154A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FB2EB0CE-4595-4697-908A-3052817E154A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>898400025636412012</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>serial</t>
+  </si>
+  <si>
+    <t>unit_code</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>A0512</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>BADinh</t>
+  </si>
+  <si>
+    <t>0993999123</t>
+  </si>
+  <si>
+    <t>A0520</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>0998789654</t>
+  </si>
+  <si>
+    <t>example@gmail.com</t>
+  </si>
+  <si>
+    <t>Cầu Giấy</t>
+  </si>
+  <si>
+    <t>898407210994000007</t>
+  </si>
+  <si>
+    <t>898407210994000006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,14 +119,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,29 +443,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C55E81C-165F-423E-B5B1-E83B1EEF8C39}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{84B1DF4E-BFA6-4665-8C33-653103C9847A}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{4E21FBA4-01ED-4490-9A18-D49E74E80D79}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/assets/sim-profile-serial.xlsx
+++ b/src/assets/sim-profile-serial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863D77B1-2E4C-442F-A52E-D003AE4FA036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49460C2-0D21-4E7C-8601-EEA55759591C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FB2EB0CE-4595-4697-908A-3052817E154A}"/>
   </bookViews>
@@ -20,19 +20,27 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>serial</t>
   </si>
   <si>
-    <t>unit_code</t>
-  </si>
-  <si>
     <t>full_name</t>
   </si>
   <si>
@@ -42,50 +50,35 @@
     <t>email</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>A0512</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>BADinh</t>
-  </si>
-  <si>
-    <t>0993999123</t>
-  </si>
-  <si>
-    <t>A0520</t>
+    <t>898407210994000008</t>
+  </si>
+  <si>
+    <t>user_code</t>
+  </si>
+  <si>
+    <t>unit_id</t>
   </si>
   <si>
     <t>Nguyễn Văn B</t>
   </si>
   <si>
-    <t>0998789654</t>
-  </si>
-  <si>
-    <t>example@gmail.com</t>
-  </si>
-  <si>
-    <t>Cầu Giấy</t>
-  </si>
-  <si>
-    <t>898407210994000007</t>
-  </si>
-  <si>
-    <t>898407210994000006</t>
+    <t>0993999122</t>
+  </si>
+  <si>
+    <t>A0521</t>
+  </si>
+  <si>
+    <t>e@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +90,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,11 +122,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C55E81C-165F-423E-B5B1-E83B1EEF8C39}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +457,7 @@
     <col min="3" max="3" width="19.109375" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -464,67 +465,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
+      <c r="F2" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{84B1DF4E-BFA6-4665-8C33-653103C9847A}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{4E21FBA4-01ED-4490-9A18-D49E74E80D79}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A72D2DE7-B562-4DCC-BBE7-9B09749561B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/assets/sim-profile-serial.xlsx
+++ b/src/assets/sim-profile-serial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49460C2-0D21-4E7C-8601-EEA55759591C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C1B2CC-B81B-4FD4-A2F5-42FB165BCDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FB2EB0CE-4595-4697-908A-3052817E154A}"/>
   </bookViews>
@@ -20,65 +20,72 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>serial</t>
-  </si>
-  <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>898407210994000008</t>
-  </si>
-  <si>
-    <t>user_code</t>
-  </si>
-  <si>
-    <t>unit_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
   <si>
     <t>Nguyễn Văn B</t>
   </si>
   <si>
-    <t>0993999122</t>
-  </si>
-  <si>
-    <t>A0521</t>
-  </si>
-  <si>
-    <t>e@gmail.com</t>
+    <t>example@gmail.com</t>
+  </si>
+  <si>
+    <t>898407210994000004</t>
+  </si>
+  <si>
+    <t>898407210994000005</t>
+  </si>
+  <si>
+    <t>0993999124</t>
+  </si>
+  <si>
+    <t>0594888555</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>Serial SIM</t>
+  </si>
+  <si>
+    <t>Mã Cán Bộ</t>
+  </si>
+  <si>
+    <t>Họ Tên</t>
+  </si>
+  <si>
+    <t>Số Điện Thoại</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mã Đơn Vị</t>
+  </si>
+  <si>
+    <t>GTEL</t>
+  </si>
+  <si>
+    <t>TTGP&amp;DVS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,12 +97,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,13 +123,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,40 +443,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C55E81C-165F-423E-B5B1-E83B1EEF8C39}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -485,27 +484,47 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E3" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A72D2DE7-B562-4DCC-BBE7-9B09749561B0}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{84B1DF4E-BFA6-4665-8C33-653103C9847A}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{6DD99B56-C861-4819-AA25-8698EC3EA237}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>